--- a/doc/Demo设计/卡牌规划.xlsx
+++ b/doc/Demo设计/卡牌规划.xlsx
@@ -221,10 +221,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>高小帅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>阿泉</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -293,6 +289,10 @@
   </si>
   <si>
     <t>叶凯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>高小帅</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +684,7 @@
   <dimension ref="B2:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,7 +795,7 @@
         <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -935,7 +935,7 @@
         <v>205</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>20</v>
@@ -991,13 +991,13 @@
         <v>209</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -1005,13 +1005,13 @@
         <v>210</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
@@ -1019,13 +1019,13 @@
         <v>211</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
@@ -1159,13 +1159,13 @@
         <v>310</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
@@ -1173,13 +1173,13 @@
         <v>311</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>39</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
@@ -1243,7 +1243,7 @@
         <v>405</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>39</v>
@@ -1299,7 +1299,7 @@
         <v>502</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>49</v>
@@ -1327,7 +1327,7 @@
         <v>504</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>49</v>
@@ -1341,7 +1341,7 @@
         <v>505</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>49</v>
@@ -1355,7 +1355,7 @@
         <v>506</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>49</v>
@@ -1369,7 +1369,7 @@
         <v>507</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>49</v>
@@ -1383,7 +1383,7 @@
         <v>508</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>49</v>
@@ -1397,7 +1397,7 @@
         <v>509</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>49</v>
